--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emery/git/web-programming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{49D7CA37-9A45-1742-8509-939FEC4F4576}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82E1E2C7-A373-014D-AE87-56A39780BB9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2840" yWindow="520" windowWidth="19600" windowHeight="16540"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="80">
   <si>
     <t>type</t>
   </si>
@@ -172,6 +172,9 @@
     <t>Ch11.9 - Ch11.13</t>
   </si>
   <si>
+    <t>Project</t>
+  </si>
+  <si>
     <t>P11D</t>
   </si>
   <si>
@@ -257,12 +260,6 @@
   </si>
   <si>
     <t>L10</t>
-  </si>
-  <si>
-    <t>L11</t>
-  </si>
-  <si>
-    <t>L12, Project</t>
   </si>
 </sst>
 </file>
@@ -1142,7 +1139,7 @@
   <dimension ref="A1:Y971"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1263,7 +1260,7 @@
         <v>43854</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1296,7 +1293,7 @@
         <v>43857</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
@@ -1364,7 +1361,7 @@
         <v>43859</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1432,7 +1429,7 @@
         <v>43861</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
@@ -1465,10 +1462,10 @@
         <v>43864</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1508,7 +1505,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1535,13 +1532,13 @@
         <v>43866</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1603,7 +1600,7 @@
         <v>43868</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="2"/>
@@ -1636,10 +1633,10 @@
         <v>43871</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1679,7 +1676,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1706,13 +1703,13 @@
         <v>43873</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1774,7 +1771,7 @@
         <v>43875</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="2"/>
@@ -1807,10 +1804,10 @@
         <v>43879</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1850,7 +1847,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1877,13 +1874,13 @@
         <v>43882</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1910,10 +1907,10 @@
         <v>43885</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1953,7 +1950,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1980,7 +1977,7 @@
         <v>43887</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="2"/>
@@ -2047,7 +2044,7 @@
         <v>43889</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
@@ -2080,10 +2077,10 @@
         <v>43892</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -2123,7 +2120,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -2150,7 +2147,7 @@
         <v>43894</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="2"/>
@@ -2217,7 +2214,7 @@
         <v>43896</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="2"/>
@@ -2250,10 +2247,10 @@
         <v>43899</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -2320,7 +2317,7 @@
         <v>43901</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="2"/>
@@ -2387,7 +2384,7 @@
         <v>43903</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="2"/>
@@ -2420,10 +2417,10 @@
         <v>43913</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -2463,7 +2460,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:25">
@@ -2471,7 +2468,7 @@
         <v>43915</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="2"/>
@@ -2500,13 +2497,13 @@
         <v>43917</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:25">
@@ -2514,10 +2511,10 @@
         <v>43920</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -2550,12 +2547,12 @@
         <v>6</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -2585,7 +2582,7 @@
         <v>6</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -2615,10 +2612,10 @@
         <v>43927</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -2651,12 +2648,12 @@
         <v>6</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -2686,7 +2683,7 @@
         <v>6</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -2716,10 +2713,10 @@
         <v>43934</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -2752,12 +2749,12 @@
         <v>6</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -2787,7 +2784,7 @@
         <v>6</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -2820,7 +2817,7 @@
         <v>6</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -2850,10 +2847,10 @@
         <v>43943</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -2883,23 +2880,21 @@
         <v>6</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
-      <c r="F54" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:25">
       <c r="A55" s="4">
         <v>43948</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -2932,12 +2927,12 @@
         <v>6</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
